--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,27 +498,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۴۱</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۰۳۴۰۴۰۰۰۰۴۹</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>ساخت تعداد 36 عدد پنجره همرا ش...</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>دانشگاه علوم پزشکی و خدمات بهداشتی و درمانی</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>چهار محال و بختیاری</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -533,18 +533,18 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>تجهیزات خانگی، اد...</t>
+          <t>تاسیسات و مصالح س...</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۳ روز و  ۱۱ ساعت</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -556,22 +556,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۴۹</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۹۶۴۳۳۰۰۰۶۶۲</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>خرید اقلام پذیرائی ماهیانه - پ...</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>مجتمع گاز پارس جنوبی  پالایشگاه سوم</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -591,18 +591,18 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>مواد غذائی و نوشیدنی</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۴ روز و  ۱۳ ساعت</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -614,27 +614,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۵۲</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۹۰۶۸۵۰۰۰۱۶۵</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>گاز خط دار 16 لایه 120کیلو گرم...</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>بیمارستان دکتر غرضی سیرجان</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>کرمان</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -649,18 +649,18 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>دارو، پزشکی و سلامت</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۱ روز و  ۱۹ ساعت</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -672,27 +672,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۹۶</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۳۹۸۴۰۰۱۶۵۷</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>86-314-1402/0033-2 رفع اشکال ا...</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت بهره برداری نفت و گاز مسجد سلیمان</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -702,23 +702,23 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>خدمات</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>فعالیت‌های حرفه‌ای، علمی و فنی</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۱۳ روز و  ۱۱ ساعت</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -730,27 +730,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۱۱۱</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۰۳۴۰۴۰۰۰۰۴۷</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>خرید دو دستگاه سکسیونر گازی طب...</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>دانشگاه علوم پزشکی و خدمات بهداشتی و درمانی</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>چهار محال و بختیاری</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -760,23 +760,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
+          <t>کالا</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ابزارآلات الکتریکی</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۳ روز و  ۱۱ ساعت</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -788,27 +788,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۱۱۶</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۲۰۰۰۷۰۰۰۰۷۵</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>طراحی، ساخت، نصب و اجرای سیستم...</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت تهیه و تولید مواد معدنی مجتمع سرب و روی انگوران   زنجان</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>زنجان</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -818,23 +818,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>خدمات</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>تامین برق، گاز، بخار و تهویه هوا</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۴ روز و  ۱۳ ساعت</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -846,27 +846,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۱۱۷</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۰۰۳۵۱۰۰۱۲۱۷</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>لانگ گاز-بر اساس لیست پیوست</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>شبکه بهداشت و درمان فردیس</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>البرز</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -881,18 +881,18 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>دارو، پزشکی و سلامت</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۱ روز و  ۱۹ ساعت</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -904,27 +904,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۱۲۱</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۹۳۰۷۹۰۰۲۴۸۹</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>تامین فلو میتر و.....</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>شرکت بهره برداری نفت و گاز مارون</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -939,18 +939,18 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>ابزارآلات اندازه ...</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۲ روز و  ۱۱ ساعت</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -962,22 +962,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۱۳۶</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۶۳۴۷۰۰۰۷۶۲</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>PIPE ملاک فایلهای پیوستی است</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>مجتمع گاز پارس جنوبی  پالایشگاه پنجم</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1003,12 +1003,12 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۳ روز و  ۱۵ ساعت</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1020,27 +1020,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۱۴۵</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۹۲۲۹۹۰۰۰۹۸۳</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>ساخت وحمل و نصب پنجره طبق مشخص...</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>شرکت انتقال گاز ایران منطقه سه عملیات انتقال گاز</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>تهران</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1050,23 +1050,23 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
+          <t>کالا</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>تولید و فرآوری صن...</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۲ روز و  ۱۸ ساعت</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1078,22 +1078,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۱۵۴</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۶۶۹</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>دیسک و صفحه و بلبرینگ کلاچ کام...</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت نفت و گاز پارس</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1113,18 +1113,18 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>تجهیزات خانگی، اد...</t>
+          <t>اتومبیل وموتورسیکلت</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۳ روز و  ۱۱ ساعت</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1136,27 +1136,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۱۶۱</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۲۷</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>مطابق شرح پیوست</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1171,18 +1171,18 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>تجهیزات امنیتی</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۱۶ روز و  ۸ ساعت</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1194,22 +1194,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۱۶۸</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۹۶۳۴۷۰۰۰۷۶۱</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>BUCKET ELEVATOR - ملاک فایاهای...</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>مجتمع گاز پارس جنوبی  پالایشگاه پنجم</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1235,12 +1235,12 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۳ روز و  ۱۵ ساعت</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1252,27 +1252,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۱۷۲</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۱۴۹۶۰۰۰۰۵۱</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>100 عدد باطری لیتیومی مطابق با...</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت گاز استان همدان</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>همدان</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1287,18 +1287,18 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>محصولات الکترونیکی</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۳ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1310,27 +1310,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۱۷۵</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۹۳۰۷۹۰۰۲۴۸۸</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>تامین فلو ترانسمیتر و....</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>شرکت بهره برداری نفت و گاز مارون</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1340,23 +1340,23 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
+          <t>کالا</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ابزارآلات اندازه ...</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۳ روز و  ۱۱ ساعت</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1368,27 +1368,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۱۷۸</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۲۶</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>مطابق شرح پیوست</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1403,18 +1403,18 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>تجهیزات خانگی، اد...</t>
+          <t>کامپیوتر و فناوری...</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۱۴ روز و  ۸ ساعت</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1426,27 +1426,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۱۸۹</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۲۵</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>مطابق شرح پیوست</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1461,18 +1461,18 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>کامپیوتر و فناوری...</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۳ روز و  ۸ ساعت</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1484,22 +1484,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۱۹۱</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۹۶۳۴۷۰۰۰۷۶۰</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>BALL BEARING - ملاک فایلهای پی...</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>مجتمع گاز پارس جنوبی  پالایشگاه پنجم</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1525,12 +1525,12 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۴ روز و  ۱۵ ساعت</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1542,22 +1542,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۱۹۵</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۷۸۴۷۰۰۱۱۶۰</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>متابی سولفیت سدیم گرید خوراکی-...</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>ستاد مجتمع گاز پارس جنوبی</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1577,18 +1577,18 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>محصولات شیمیائی</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۱۰ روز و  ۱۷ ساعت</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1600,27 +1600,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۱۹۷</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۲۴</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>مطابق شرح پیوست</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1630,23 +1630,23 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
+          <t>کالا</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>تجهیزات امنیتی</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۱۶ روز و  ۸ ساعت</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1658,27 +1658,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۲۰۴</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۲۳</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>INDUSTRY SWITCH طبق شرح درخواس...</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1693,18 +1693,18 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>تجهیزات خانگی، اد...</t>
+          <t>تعمیر و نگهداری</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۷ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1716,27 +1716,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۲۰۹</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۹۲۲۵۸۰۰۰۷۷۳</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>5 قلم لوازم لودر هیوندا مدل hl...</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>شرکت بهره برداری نفت و گاز شرق</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1751,18 +1751,18 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>لوازم خودرو و ماش...</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۱ روز و  ۱۸ ساعت</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1774,22 +1774,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۲۱۵</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۹۶۳۴۷۰۰۰۷۵۹</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>ROLLER BEARING ملاک فایلهای پی...</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>مجتمع گاز پارس جنوبی  پالایشگاه پنجم</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1815,12 +1815,12 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۴ روز و  ۱۵ ساعت</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1832,27 +1832,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۲۲۹</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۲۲۵۸۰۰۰۷۷۲</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>COD MR VARIO VIALS/به ارائه پی...</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت بهره برداری نفت و گاز شرق</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خراسان رضوی</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1867,18 +1867,18 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>محصولات شیمیائی</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۲ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1890,27 +1890,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۲۳۷</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۹۴۰۵۸۰۰۰۲۹۷</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>استعلام بهای تعمیر کلی اور هال...</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>بیمارستان بعثت سنندج</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>کردستان</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1931,12 +1931,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۲ روز و  ۱۹ ساعت</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1948,27 +1948,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۲۴۳</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۲۲</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>دستگاه تست نمک طبق شرح درخواست...</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1983,18 +1983,18 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>تجهیزات خانگی، اد...</t>
+          <t>تعمیر و نگهداری</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۷ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2006,27 +2006,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۲۵۸</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۲۱</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>مطابق شرح پیوست</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2041,18 +2041,18 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>محصولات الکترونیکی</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۱۷ روز و  ۸ ساعت</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2064,27 +2064,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۲۷۷</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۲۰</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>مطابق شرح پیوست</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2099,18 +2099,18 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>تجهیزات خانگی، اد...</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۲ روز و  ۸ ساعت</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2122,27 +2122,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۲۷۹</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۱۵۰۴۰۰۰۷۹۳</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>پیمان تعمیرات ضروری و اضطراری ...</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت گاز استان اذربایجان شرقی</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2152,23 +2152,23 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>خدمات</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>تامین برق، گاز، بخار و تهویه هوا</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۳ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2180,27 +2180,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۲۸۱</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۹۲۱۶۰۰۰۰۴۳۷</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>تعمیر الکترو موتور کمپرسور ابز...</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>مدیریت پخش فرآورده های نفتی منطقه تهران</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>تهران</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2216,17 +2216,17 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
+          <t>سایر فعالیت‌های خدماتی</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۶ روز و  ۱۵ ساعت</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2238,27 +2238,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۲۸۳</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۹۳۹۸۴۰۰۱۶۵۶</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>تعمیر و راه اندازی ایستگاه سنج...</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت بهره برداری نفت و گاز مسجد سلیمان</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2268,23 +2268,23 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>خدمات</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>سایر فعالیت‌های خدماتی</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۲ روز و  ۱۳ ساعت</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2296,27 +2296,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۲۸۶</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۰۱۳۳۹۰۰۰۲۸۹</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>نصب 600 عدد کنتور و رگلاتور در...</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>شرکت گاز استان کرمانشاه</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>کرمانشاه</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2326,23 +2326,23 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>خدمات</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>تامین برق، گاز، بخار و تهویه هوا</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۲ روز و  ۱۵ ساعت</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2354,22 +2354,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۲۹۲</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۹۶۳۴۷۰۰۰۷۵۸</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>back up ring - ملاک فایلهای پی...</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>مجتمع گاز پارس جنوبی  پالایشگاه پنجم</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2395,12 +2395,12 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۳ روز و  ۱۵ ساعت</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2412,22 +2412,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۲۹۸</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۷۲۱۱۰۰۰۳۸۵</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>برد شارژر-پست کنگان</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>مدیریت عملیات مجتمع گاز پارس جنوبی</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2447,18 +2447,18 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>ابزارآلات</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۲ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2470,27 +2470,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۳۰۱</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۹۲۶۲۵۰۰۰۴۴۸</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>relay finder- fuse - earth lea...</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>منطقه 10 عملیات انتقال گاز در استان بوشهر</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>بوشهر</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2500,23 +2500,23 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
+          <t>کالا</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>کامپیوتر و فناوری...</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۶ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2528,27 +2528,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۳۲۱</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۹۲۵۲۱۰۰۰۳۱۸</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>سرور و تجهیزات شبکه طبق لیست پ...</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت پالایش گاز سرخون و قشم</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>هرمزگان</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2563,18 +2563,18 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>تجهیزات خانگی، اد...</t>
+          <t>کامپیوتر و فناوری...</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۶ روز و  ۱۱ ساعت</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2586,27 +2586,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۳۳۰</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۹۱۵۹۲۰۰۱۱۸۶</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>فیلتر کیسه ای مطابق با مشخصات ...</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>منطقه 8 عملیات انتقال گازایران</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2621,18 +2621,18 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>تولید و فرآوری صن...</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۷ روز و  ۱۱ ساعت</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2644,22 +2644,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۳۳۹</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۹۲۲۷۳۰۰۰۵۰۸</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>Underground Armoured Cable</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>شرکت پالایش گاز فجر جم</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2679,18 +2679,18 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>ابزارآلات الکتریکی</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۳ روز و  ۱۵ ساعت</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2702,22 +2702,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۳۴۲</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۲۲۷۳۰۰۰۵۰۷</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>حافظه SSD اینترنال</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت پالایش گاز فجر جم</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2737,18 +2737,18 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>کامپیوتر و فناوری...</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۳ روز و  ۱۵ ساعت</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2760,27 +2760,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۳۴۶</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۰۵۸۹۹۰۰۱۳۶۸</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>تست و شارژ کپسولهای CO2 و پودر...</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>بیمارستان عالی نسب تبریز</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2796,17 +2796,17 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
+          <t>سایر فعالیت‌های خدماتی</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۲ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2818,27 +2818,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۳۵۴</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۹۱۸۶۱۰۰۰۶۷۹</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>زنجیر لودر</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>عملیات انتقال گاز مازندران منطقه 9</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>مازندران</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2853,18 +2853,18 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>تجهیزات خانگی، اد...</t>
+          <t>ماشین آلات تولیدی</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۴ روز و  ۱۱ ساعت</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2876,27 +2876,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۳۵۵</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۹۳۹۸۵۰۱۱۹۶۸</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>تعمیر یک دستگاه سیستم گاز اجیل...</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>شرکت ملی حفاری ایران در استان خوزستان</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2906,23 +2906,23 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>خدمات</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>سایر فعالیت‌های خدماتی</t>
+        </is>
+      </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۶ روز و  ۱۸ ساعت</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2934,27 +2934,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۳۵۹</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۹۹۴۱۴۰۰۲۵۰۵</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>گاز خط دار16لا 10*10 تعداد3600...</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>مرکز آموزشی، تحقیقاتی و درمانی قلب و عروق شهید رجائی</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>تهران</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2969,18 +2969,18 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>دارو، پزشکی و سلامت</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۱ روز و  ۱۷ ساعت</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2992,22 +2992,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۳۶۳</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۶۴۱۲۰۰۱۳۴۵</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>p/f press switch</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>مجتمع گاز پارس جنوبی  پالایشگاه هشتم</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3027,18 +3027,18 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>ابزارآلات اندازه ...</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۶ روز و  ۱۳ ساعت</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3050,27 +3050,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۳۶۶</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۹۳۰۷۹۰۰۲۴۸۷</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>چکمه ایمنی مطابق شرح پیوست</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>شرکت بهره برداری نفت و گاز مارون</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3080,23 +3080,23 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
+          <t>کالا</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>پوشاک و کفش</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۱ روز و  ۱۷ ساعت</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3108,22 +3108,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۳۶۹</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۹۷۱۶۴۰۰۰۹۳۷</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>بیرینگ//بیرینگ 44932</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>مجتمع گاز پارس جنوبی  پالایشگاه دوازدهم</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3143,18 +3143,18 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>تجهیزات خانگی، اد...</t>
+          <t>تعمیر و نگهداری</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۲ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3166,22 +3166,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۳۷۴</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۹۶۴۱۲۰۰۱۳۴۴</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>p/f instrument &amp; control cabin...</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>مجتمع گاز پارس جنوبی  پالایشگاه هشتم</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3201,18 +3201,18 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>ابزارآلات اندازه ...</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۶ روز و  ۱۳ ساعت</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3224,17 +3224,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۳۸۳</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۹</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>HIGH ALUMINA CERAMIC BONDED BRICK</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3265,12 +3265,12 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۴ روز و  ۱۳ ساعت</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3282,27 +3282,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۳۹۴</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۳۲۶۱۰۰۰۵۷۸</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>دتکتور دما -ایران کد مشابه است...</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت انتقال گاز منطقه 5</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>فارس</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3317,18 +3317,18 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>فن آوریهای ساخت و...</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۳ روز و  ۱۱ ساعت</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3340,27 +3340,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۳۹۵</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۹۳۲۲۸۰۰۲۷۹۶</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>پروژه تعمیرات و بازسازی 4 دستک...</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>شرکت بهره برداری نفت و گاز اغاجاری</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3376,17 +3376,17 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
+          <t>تولید صنعتی (ساخت)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۳ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3398,27 +3398,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۳۹۹</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۹۲۵۴۴۰۰۳۸۰۳</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>ماسه/به فایل پیوستی رجوع شود.ش...</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت بهره برداری نفت و گاز کارون</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3433,18 +3433,18 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>تجهیزات خانگی، اد...</t>
+          <t>تاسیسات و مصالح س...</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۱ روز و  ۱۶ ساعت</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3456,22 +3456,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۴۰۰</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۹۷۲۱۱۰۰۰۳۸۴</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>اتصالات مخازن آب-مکانیک</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>مدیریت عملیات مجتمع گاز پارس جنوبی</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3491,18 +3491,18 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>امور تاسیساتی</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۲ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3514,27 +3514,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۴۱۳</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۹۳۲۲۸۰۰۲۷۹۴</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>انجام خدمات نصب ، راه اندازی و...</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>شرکت بهره برداری نفت و گاز اغاجاری</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3544,23 +3544,23 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>خدمات</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>حمل و نقل و انبارداری</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۸ روز و  ۱۳ ساعت</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3572,27 +3572,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۴۲۰</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۳۲۶۱۰۰۰۵۷۷</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>فن توربین-ایران کد مشابه استفا...</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت انتقال گاز منطقه 5</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>فارس</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3607,18 +3607,18 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>فن آوریهای ساخت و...</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۳ روز و  ۱۱ ساعت</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3630,27 +3630,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۴۲۲</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۹۳۲۰۲۰۰۰۹۳۲</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>ماژول صنعتی بشماره تقاضای 0200...</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>شرکت پالایش گاز بیدبلند</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3660,23 +3660,23 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
+          <t>کالا</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>تولید و فرآوری صن...</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۹ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3688,27 +3688,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۴۳۱</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۹۳۲۰۲۰۰۰۹۳۳</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>عملیات حذف علف های هرز محدوده ...</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت پالایش گاز بیدبلند</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3718,23 +3718,23 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>خدمات</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>فعالیت‌های اداری و خدمات پشتیبانی</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۶ روز و  ۱۳ ساعت</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3746,27 +3746,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۴۳۴</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۹۳۲۶۱۰۰۰۵۷۶</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>فیلتر روغن-ایران کد مشابه استف...</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>شرکت انتقال گاز منطقه 5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>فارس</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3781,18 +3781,18 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>فن آوریهای ساخت و...</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۳ روز و  ۱۱ ساعت</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3804,22 +3804,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۴۴۰</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۹۶۳۴۷۰۰۰۷۵۷</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>تعمیرات سنسورهای تشخیص گاز هید...</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>مجتمع گاز پارس جنوبی  پالایشگاه پنجم</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3834,23 +3834,23 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
+          <t>خدمات</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>تولید صنعتی (ساخت)</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۱۰ روز و  ۱۱ ساعت</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3862,27 +3862,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۴۴۵</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۳۲۲۸۰۰۲۷۹۲</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>خرید ریسه بلوطی طبق فایلهای پیوست</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت بهره برداری نفت و گاز اغاجاری</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3903,12 +3903,12 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۳ روز و  ۸ ساعت</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3920,27 +3920,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۴۶۳</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۹۱۵۹۲۰۰۱۱۸۵</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>کابل سنسور طول دکل جرثقیل 30 ت...</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>منطقه 8 عملیات انتقال گازایران</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3950,23 +3950,23 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
+          <t>کالا</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>محصولات الکترونیکی</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۶ روز و  ۱۳ ساعت</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3978,27 +3978,27 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۴۶۶</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۹۴۶۷۵۰۰۰۱۴۹</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>پروژه اصلاح روشنایی روستایی بخ...</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>توزیع برق دزفول</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4008,23 +4008,23 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>خدمات</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>تامین برق، گاز، بخار و تهویه هوا</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۳ روز</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4036,27 +4036,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۴۶۷</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۹۳۲۲۸۰۰۲۷۹۳</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>&amp; #40;تعمیرات ،تهیه و تعویض سیم کشی...</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>شرکت بهره برداری نفت و گاز اغاجاری</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4066,23 +4066,23 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
+          <t>خدمات</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>تولید صنعتی (ساخت)</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۲ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4094,27 +4094,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۴۸۹</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۹۲۲۹۹۰۰۰۸۴۸</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>آشکارکننده گاز &amp; #40;دتکتور&amp; #41; طبق مش...</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>شرکت انتقال گاز ایران منطقه سه عملیات انتقال گاز</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>تهران</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4129,18 +4129,18 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>تولید و فرآوری صن...</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۳ روز و  ۱۱ ساعت</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4152,27 +4152,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۴۹۰</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۳۲۲۸۰۰۲۷۸۹</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>خرید 899 عدد در&amp; #40;40قلم &amp; #41;قطعات س...</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت بهره برداری نفت و گاز اغاجاری</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4187,18 +4187,18 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>لوازم خودرو و ماش...</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۶ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4210,27 +4210,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۴۹۶</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۰۷۰۰۰۰۰۱۲۷۲</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>رفع افت ولتاژ روشنایی طرح بهار...</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>شرکت توزیع نیروی برق استان فارس</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>فارس</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4251,12 +4251,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۳ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4268,27 +4268,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۵۰۱</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۰۵۹۵۰۰۰۰۰۴۰</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>5کیلو پنبه هیروفیل 40کیلو گاز ...</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>بیمارستان شریعت رضوی تهران</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>تهران</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4303,18 +4303,18 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>تجهیزات خانگی، اد...</t>
+          <t>دارو، پزشکی و سلامت</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۱ روز و  ۱۶ ساعت</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4326,27 +4326,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۵۰۲</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۹۳۲۰۲۰۰۰۹۳۱</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>کیس صنعتی    الزاما طبق مشخصات...</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>شرکت پالایش گاز بیدبلند</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4361,18 +4361,18 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>تولید و فرآوری صن...</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۲ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4384,27 +4384,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۵۱۳</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۹۳۲۲۸۰۰۲۷۹۰</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>تکمیل و اصلاح کانال کشی دستگاه...</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>شرکت بهره برداری نفت و گاز اغاجاری</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4414,23 +4414,23 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
+          <t>خدمات</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>ساختمان</t>
+        </is>
+      </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۹ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4442,27 +4442,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۵۱۴</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۴۳۰۴۰۰۰۰۴۶</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>اصلاح و بهینه شهری&amp; #40;260 متر شبک...</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>مدیریت توزیع برق شهرستان امیدیه</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4472,23 +4472,23 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
+          <t>خدمات</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>تامین برق، گاز، بخار و تهویه هوا</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۲ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4500,27 +4500,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۵۲۰</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۰۷۰۰۰۰۰۱۲۷۱</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>بازدید از محل جهت واگذاری انشعاب</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>شرکت توزیع نیروی برق استان فارس</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>فارس</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۳ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4558,27 +4558,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۵۳۳</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۹۱۷۹۷۰۰۰۰۸۴</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>نصب 210 انشعاب پلی اتیلن در سط...</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت گاز استان کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>کهگیلویه و بویراحمد</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4588,23 +4588,23 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
+          <t>خدمات</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>تامین برق، گاز، بخار و تهویه هوا</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۳ روز و  ۱۲ ساعت</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4616,22 +4616,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۵۳۸</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۹۶۴۱۲۰۰۱۳۴۳</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>p/f hi-t pigalter position switch</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>مجتمع گاز پارس جنوبی  پالایشگاه هشتم</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4651,18 +4651,18 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>ابزارآلات اندازه ...</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۶ روز و  ۱۳ ساعت</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4674,27 +4674,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۵۴۰</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۰۷۰۰۰۰۰۱۲۷۰</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>نصب سکسیونر</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>شرکت توزیع نیروی برق استان فارس</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>فارس</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4704,23 +4704,23 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>خدمات</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>تامین برق، گاز، بخار و تهویه هوا</t>
+        </is>
+      </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۳ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4732,27 +4732,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۵۵۰</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۲۴۱۶۰۰۰۳۵۶</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>نعداد 20 عدد قطعات یدکی FLAME ...</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت پالایش گاز پارسیان</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>فارس</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4767,18 +4767,18 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>محصولات الکترونیکی</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۱۴ روز و  ۱۱ ساعت</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4790,17 +4790,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۵۶۳</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۲۰</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>احداث شبکه فشار ضعیف هوایی جهت...</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۴ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4848,27 +4848,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۵۸۷</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4883,18 +4883,18 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>تجهیزات خانگی، اد...</t>
+          <t>پوشاک و کفش</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۳ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -4906,27 +4906,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۵۹۱</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>36 قلم لوازم التحریر به شرح اس...</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>بازرگانی گاز ایران</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>تهران</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4941,18 +4941,18 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>تجهیزات و وسایل ت...</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۲ روز و  ۱۷ ساعت</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4964,27 +4964,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۵۹۶</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4999,18 +4999,18 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>تجهیزات خانگی، اد...</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۲ روز و  ۱۶ ساعت</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5022,27 +5022,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۵۸۷</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5057,18 +5057,18 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>پوشاک و کفش</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۳ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5080,27 +5080,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۵۹۱</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>36 قلم لوازم التحریر به شرح اس...</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>بازرگانی گاز ایران</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>تهران</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5110,23 +5110,23 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
+          <t>کالا</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>تجهیزات و وسایل ت...</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۲ روز و  ۱۷ ساعت</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5138,27 +5138,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۵۹۶</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5179,12 +5179,12 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۲ روز و  ۱۶ ساعت</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5196,27 +5196,27 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۵۸۷</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -5231,18 +5231,18 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>پوشاک و کفش</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۳ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5254,27 +5254,27 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۵۹۱</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>36 قلم لوازم التحریر به شرح اس...</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>بازرگانی گاز ایران</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>تهران</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -5289,18 +5289,18 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>تجهیزات و وسایل ت...</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۲ روز و  ۱۷ ساعت</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5312,27 +5312,27 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۵۹۶</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5347,18 +5347,18 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>تجهیزات خانگی، اد...</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۲ روز و  ۱۶ ساعت</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5370,27 +5370,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۵۸۷</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5400,23 +5400,23 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
+          <t>کالا</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>پوشاک و کفش</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۳ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5428,27 +5428,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۵۹۱</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>36 قلم لوازم التحریر به شرح اس...</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>بازرگانی گاز ایران</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>تهران</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5463,18 +5463,18 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>تجهیزات خانگی، اد...</t>
+          <t>تجهیزات و وسایل ت...</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۲ روز و  ۱۷ ساعت</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5486,27 +5486,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۵۹۶</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5521,18 +5521,18 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>تجهیزات خانگی، اد...</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۲ روز و  ۱۶ ساعت</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5544,27 +5544,27 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۵۸۷</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5579,18 +5579,18 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>پوشاک و کفش</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۳ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5602,27 +5602,27 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۵۹۱</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>36 قلم لوازم التحریر به شرح اس...</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>بازرگانی گاز ایران</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>تهران</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5637,18 +5637,18 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>تجهیزات و وسایل ت...</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۲ روز و  ۱۷ ساعت</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5660,27 +5660,27 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۵۹۶</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5690,23 +5690,23 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
+          <t>کالا</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>تجهیزات خانگی، اد...</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۲ روز و  ۱۶ ساعت</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5718,27 +5718,27 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۵۸۷</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5753,18 +5753,18 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>تجهیزات خانگی، اد...</t>
+          <t>پوشاک و کفش</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۳ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5776,27 +5776,27 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۵۹۱</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>36 قلم لوازم التحریر به شرح اس...</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>بازرگانی گاز ایران</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>تهران</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5811,18 +5811,18 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>تجهیزات و وسایل ت...</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۲ روز و  ۱۷ ساعت</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -5834,27 +5834,27 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۵۹۶</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5869,18 +5869,18 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>تجهیزات خانگی، اد...</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۲ روز و  ۱۶ ساعت</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -5892,27 +5892,27 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۵۸۷</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5927,18 +5927,18 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>پوشاک و کفش</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۳ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -5950,27 +5950,27 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۵۹۱</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>36 قلم لوازم التحریر به شرح اس...</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>بازرگانی گاز ایران</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>تهران</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5980,23 +5980,23 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
+          <t>کالا</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>تجهیزات و وسایل ت...</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۲ روز و  ۱۷ ساعت</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -6008,27 +6008,27 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۵۹۶</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -6049,12 +6049,12 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۲ روز و  ۱۶ ساعت</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -6066,27 +6066,27 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۵۸۷</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -6101,18 +6101,18 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>پوشاک و کفش</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۳ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6124,27 +6124,27 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۵۹۱</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>36 قلم لوازم التحریر به شرح اس...</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>بازرگانی گاز ایران</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>تهران</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -6159,18 +6159,18 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>تجهیزات و وسایل ت...</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۲ روز و  ۱۷ ساعت</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6182,27 +6182,27 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۵۹۶</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -6217,18 +6217,18 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>تجهیزات خانگی، اد...</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۲ روز و  ۱۶ ساعت</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -6240,27 +6240,27 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۵۸۷</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -6270,23 +6270,23 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
+          <t>کالا</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>پوشاک و کفش</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۳ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -6298,27 +6298,27 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۵۹۱</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>36 قلم لوازم التحریر به شرح اس...</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>بازرگانی گاز ایران</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>تهران</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -6333,18 +6333,18 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>تجهیزات خانگی، اد...</t>
+          <t>تجهیزات و وسایل ت...</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۲ روز و  ۱۷ ساعت</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -6356,27 +6356,27 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۵۹۶</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -6391,18 +6391,18 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>تجهیزات خانگی، اد...</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۲ روز و  ۱۶ ساعت</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -6414,27 +6414,27 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۵۸۷</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -6449,18 +6449,18 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>پوشاک و کفش</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۳ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -6472,27 +6472,27 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۵۹۱</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>36 قلم لوازم التحریر به شرح اس...</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>بازرگانی گاز ایران</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>تهران</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -6507,18 +6507,18 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>تجهیزات و وسایل ت...</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۲ روز و  ۱۷ ساعت</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -6530,27 +6530,27 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۵۹۶</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -6560,23 +6560,23 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
+          <t>کالا</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>تجهیزات خانگی، اد...</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۲ روز و  ۱۶ ساعت</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -6588,27 +6588,27 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۵۸۷</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -6623,18 +6623,18 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>تجهیزات خانگی، اد...</t>
+          <t>پوشاک و کفش</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۳ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -6646,27 +6646,27 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>۱۳</t>
+          <t>۵۹۱</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
+          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
+          <t>36 قلم لوازم التحریر به شرح اس...</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>شرکت نفت و گاز پارس</t>
+          <t>بازرگانی گاز ایران</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>تهران</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -6681,18 +6681,18 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>تجهیزات و وسایل ت...</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
+          <t>۲ روز و  ۱۷ ساعت</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -6704,27 +6704,27 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>۲۳</t>
+          <t>۵۹۶</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
+          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>فایل پیوست</t>
+          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
+          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6739,18 +6739,18 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>تجهیزات خانگی، اد...</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
+          <t>۲ روز و  ۱۶ ساعت</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -6762,27 +6762,27 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>۲۵</t>
+          <t>۵۸۷</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
+          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
+          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>شرکت نفت و گاز اروندان</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>خوزستان</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6797,18 +6797,18 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>تعمیر و نگهداری</t>
+          <t>پوشاک و کفش</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>۱۵ روز</t>
+          <t>۳ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -6820,27 +6820,27 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>۲۸</t>
+          <t>۵۹۱</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
+          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
+          <t>36 قلم لوازم التحریر به شرح اس...</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
+          <t>بازرگانی گاز ایران</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>هرمزگان</t>
+          <t>تهران</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6850,23 +6850,23 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
+          <t>کالا</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>تجهیزات و وسایل ت...</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>۳ روز و  ۵ ساعت</t>
+          <t>۲ روز و  ۱۷ ساعت</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -6878,27 +6878,27 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>۸</t>
+          <t>۵۹۶</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
+          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
+          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
+          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>بوشهر</t>
+          <t>آذربایجان شرقی</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6919,2277 +6919,15 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr">
         <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
+          <t>۱۴۰۲/۱۰/۲۳</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۲ روز و  ۱۶ ساعت</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>۱۳</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>شرکت نفت و گاز پارس</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>۲۳</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>فایل پیوست</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>۲۵</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>۱۵ روز</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>۲۸</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>هرمزگان</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۵ ساعت</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>۸</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>۱۳</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>شرکت نفت و گاز پارس</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>۲۳</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>فایل پیوست</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>۲۵</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>۱۵ روز</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>۲۸</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>هرمزگان</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۵ ساعت</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>۸</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>۱۳</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>شرکت نفت و گاز پارس</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>۲۳</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>فایل پیوست</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>۲۵</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>۱۵ روز</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>۲۸</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>هرمزگان</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۵ ساعت</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>۸</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>۱۳</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>شرکت نفت و گاز پارس</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>۲۳</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>فایل پیوست</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>۲۵</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>۱۵ روز</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>۲۸</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>هرمزگان</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۵ ساعت</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>۸</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>۱۳</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>شرکت نفت و گاز پارس</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>۲۳</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>فایل پیوست</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>۲۵</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>۱۵ روز</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>۲۸</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>هرمزگان</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۵ ساعت</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>۸</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>۱۳</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>شرکت نفت و گاز پارس</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>۲۳</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>فایل پیوست</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>۲۵</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>۱۵ روز</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>۲۸</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>هرمزگان</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۵ ساعت</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>۸</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>۱۳</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>شرکت نفت و گاز پارس</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>۲۳</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>فایل پیوست</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>۲۵</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>۱۵ روز</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>۲۸</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>هرمزگان</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۵ ساعت</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>۸</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۹</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>متال اسپری شفت روتور&amp; #40; محل بیری...</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>۱۳</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۱۰۳۴۰۰۴۵۱۲</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>22 ردیف انواع فلنج طبق ابعاد/م...</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>شرکت نفت و گاز پارس</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>۵ روز و  ۲۰ ساعت</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>۲۳</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۷۵۸۷۰۰۰۹۲۷</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>فایل پیوست</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه نهم</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۱۸ ساعت</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>۲۵</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۶۷۸۳۰۰۰۸۱۸</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>دستگاه پمپ گریس آلتراسونیک مدل...</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>مجتمع گاز پارس جنوبی  پالایشگاه چهارم</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>بوشهر</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>تعمیر و نگهداری</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>۱۵ روز</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>۲۸</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۴۱۰۶۰۰۱۳۱۲</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>تجدید تامین برق متقاضیان روستا...</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>شرکت توزیع نیروی برق استان هرمزگان</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>هرمزگان</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>خدمات</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>تامین برق، گاز، بخار و تهویه هوا</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۱</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۵ ساعت</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
         <is>
           <t>javascript:void(0)</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,12 +544,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۱ ساعت</t>
+          <t>۳ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615602&amp;domainType=1431&amp;needId=3400618</t>
         </is>
       </c>
     </row>
@@ -602,12 +602,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>۴ روز و  ۱۳ ساعت</t>
+          <t>۴ روز و  ۱۲ ساعت</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615556&amp;domainType=1431&amp;needId=3400579</t>
         </is>
       </c>
     </row>
@@ -660,12 +660,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>۱ روز و  ۱۹ ساعت</t>
+          <t>۱ روز و  ۱۸ ساعت</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615576&amp;domainType=1431&amp;needId=3400597</t>
         </is>
       </c>
     </row>
@@ -718,12 +718,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>۱۳ روز و  ۱۱ ساعت</t>
+          <t>۱۳ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615516&amp;domainType=1431&amp;needId=3400549</t>
         </is>
       </c>
     </row>
@@ -776,12 +776,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۱ ساعت</t>
+          <t>۳ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615391&amp;domainType=1431&amp;needId=3400437</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>۴ روز و  ۱۳ ساعت</t>
+          <t>۴ روز و  ۱۲ ساعت</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615499&amp;domainType=1431&amp;needId=3400536</t>
         </is>
       </c>
     </row>
@@ -892,12 +892,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>۱ روز و  ۱۹ ساعت</t>
+          <t>۱ روز و  ۱۸ ساعت</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615507&amp;domainType=1431&amp;needId=3400540</t>
         </is>
       </c>
     </row>
@@ -950,12 +950,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۱ ساعت</t>
+          <t>۲ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615501&amp;domainType=1431&amp;needId=3400533</t>
         </is>
       </c>
     </row>
@@ -1008,12 +1008,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۵ ساعت</t>
+          <t>۳ روز و  ۱۴ ساعت</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615481&amp;domainType=1431&amp;needId=3400513</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۸ ساعت</t>
+          <t>۲ روز و  ۱۷ ساعت</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615444&amp;domainType=1431&amp;needId=3400475</t>
         </is>
       </c>
     </row>
@@ -1124,12 +1124,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۱ ساعت</t>
+          <t>۳ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615469&amp;domainType=1431&amp;needId=3400500</t>
         </is>
       </c>
     </row>
@@ -1182,12 +1182,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>۱۶ روز و  ۸ ساعت</t>
+          <t>۱۶ روز و  ۷ ساعت</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615459&amp;domainType=1431&amp;needId=3400493</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۵ ساعت</t>
+          <t>۳ روز و  ۱۴ ساعت</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615453&amp;domainType=1431&amp;needId=3400483</t>
         </is>
       </c>
     </row>
@@ -1298,12 +1298,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۰ ساعت</t>
+          <t>۳ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615418&amp;domainType=1431&amp;needId=3400456</t>
         </is>
       </c>
     </row>
@@ -1356,12 +1356,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۱ ساعت</t>
+          <t>۳ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615436&amp;domainType=1431&amp;needId=3400469</t>
         </is>
       </c>
     </row>
@@ -1414,12 +1414,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>۱۴ روز و  ۸ ساعت</t>
+          <t>۱۴ روز و  ۷ ساعت</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615448&amp;domainType=1431&amp;needId=3400478</t>
         </is>
       </c>
     </row>
@@ -1472,12 +1472,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>۳ روز و  ۸ ساعت</t>
+          <t>۳ روز و  ۷ ساعت</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615437&amp;domainType=1431&amp;needId=3400470</t>
         </is>
       </c>
     </row>
@@ -1530,12 +1530,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>۴ روز و  ۱۵ ساعت</t>
+          <t>۴ روز و  ۱۴ ساعت</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615428&amp;domainType=1431&amp;needId=3400462</t>
         </is>
       </c>
     </row>
@@ -1588,12 +1588,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>۱۰ روز و  ۱۷ ساعت</t>
+          <t>۱۰ روز و  ۱۶ ساعت</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615345&amp;domainType=1431&amp;needId=3400395</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>۱۶ روز و  ۸ ساعت</t>
+          <t>۱۶ روز و  ۷ ساعت</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615420&amp;domainType=1431&amp;needId=3400458</t>
         </is>
       </c>
     </row>
@@ -1704,12 +1704,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>۷ روز و  ۱۰ ساعت</t>
+          <t>۷ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615402&amp;domainType=1431&amp;needId=3400445</t>
         </is>
       </c>
     </row>
@@ -1762,12 +1762,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>۱ روز و  ۱۸ ساعت</t>
+          <t>۱ روز و  ۱۷ ساعت</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615374&amp;domainType=1431&amp;needId=3400423</t>
         </is>
       </c>
     </row>
@@ -1820,12 +1820,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>۴ روز و  ۱۵ ساعت</t>
+          <t>۴ روز و  ۱۴ ساعت</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615396&amp;domainType=1431&amp;needId=3400440</t>
         </is>
       </c>
     </row>
@@ -1878,12 +1878,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۰ ساعت</t>
+          <t>۲ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615358&amp;domainType=1431&amp;needId=3400408</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۹ ساعت</t>
+          <t>۲ روز و  ۱۸ ساعت</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4613380&amp;domainType=1431&amp;needId=3398966</t>
         </is>
       </c>
     </row>
@@ -1994,12 +1994,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>۷ روز و  ۱۰ ساعت</t>
+          <t>۷ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615366&amp;domainType=1431&amp;needId=3400415</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>۱۷ روز و  ۸ ساعت</t>
+          <t>۱۷ روز و  ۷ ساعت</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615352&amp;domainType=1431&amp;needId=3400402</t>
         </is>
       </c>
     </row>
@@ -2110,12 +2110,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>۲ روز و  ۸ ساعت</t>
+          <t>۲ روز و  ۷ ساعت</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615267&amp;domainType=1431&amp;needId=3400330</t>
         </is>
       </c>
     </row>
@@ -2168,12 +2168,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۰ ساعت</t>
+          <t>۳ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4560401&amp;domainType=1431&amp;needId=3360837</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>۶ روز و  ۱۵ ساعت</t>
+          <t>۶ روز و  ۱۴ ساعت</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615309&amp;domainType=1431&amp;needId=3400371</t>
         </is>
       </c>
     </row>
@@ -2284,12 +2284,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۳ ساعت</t>
+          <t>۲ روز و  ۱۲ ساعت</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615182&amp;domainType=1431&amp;needId=3400285</t>
         </is>
       </c>
     </row>
@@ -2342,12 +2342,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۵ ساعت</t>
+          <t>۲ روز و  ۱۴ ساعت</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615293&amp;domainType=1431&amp;needId=3400370</t>
         </is>
       </c>
     </row>
@@ -2400,12 +2400,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۵ ساعت</t>
+          <t>۳ روز و  ۱۴ ساعت</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615245&amp;domainType=1431&amp;needId=3400317</t>
         </is>
       </c>
     </row>
@@ -2458,12 +2458,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۰ ساعت</t>
+          <t>۲ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615253&amp;domainType=1431&amp;needId=3400320</t>
         </is>
       </c>
     </row>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>۶ روز و  ۹ ساعت</t>
+          <t>۶ روز و  ۸ ساعت</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615151&amp;domainType=1431&amp;needId=3400241</t>
         </is>
       </c>
     </row>
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>۶ روز و  ۱۱ ساعت</t>
+          <t>۶ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615088&amp;domainType=1431&amp;needId=3400189</t>
         </is>
       </c>
     </row>
@@ -2632,12 +2632,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>۷ روز و  ۱۱ ساعت</t>
+          <t>۷ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615231&amp;domainType=1431&amp;needId=3400305</t>
         </is>
       </c>
     </row>
@@ -2690,12 +2690,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۵ ساعت</t>
+          <t>۳ روز و  ۱۴ ساعت</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4614810&amp;domainType=1431&amp;needId=3399965</t>
         </is>
       </c>
     </row>
@@ -2748,12 +2748,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۵ ساعت</t>
+          <t>۳ روز و  ۱۴ ساعت</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4614661&amp;domainType=1431&amp;needId=3399861</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>۲ روز و  ۹ ساعت</t>
+          <t>۲ روز و  ۸ ساعت</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615228&amp;domainType=1431&amp;needId=3400308</t>
         </is>
       </c>
     </row>
@@ -2864,12 +2864,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>۴ روز و  ۱۱ ساعت</t>
+          <t>۴ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615234&amp;domainType=1431&amp;needId=3400307</t>
         </is>
       </c>
     </row>
@@ -2922,12 +2922,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>۶ روز و  ۱۸ ساعت</t>
+          <t>۶ روز و  ۱۷ ساعت</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4611437&amp;domainType=1431&amp;needId=3397514</t>
         </is>
       </c>
     </row>
@@ -2980,12 +2980,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>۱ روز و  ۱۷ ساعت</t>
+          <t>۱ روز و  ۱۶ ساعت</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615223&amp;domainType=1431&amp;needId=3400299</t>
         </is>
       </c>
     </row>
@@ -3038,12 +3038,12 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>۶ روز و  ۱۳ ساعت</t>
+          <t>۶ روز و  ۱۲ ساعت</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615222&amp;domainType=1431&amp;needId=3400298</t>
         </is>
       </c>
     </row>
@@ -3096,12 +3096,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>۱ روز و  ۱۷ ساعت</t>
+          <t>۱ روز و  ۱۵ ساعت</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615214&amp;domainType=1431&amp;needId=3400293</t>
         </is>
       </c>
     </row>
@@ -3154,12 +3154,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>۲ روز و  ۹ ساعت</t>
+          <t>۲ روز و  ۸ ساعت</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4612567&amp;domainType=1431&amp;needId=3398319</t>
         </is>
       </c>
     </row>
@@ -3212,12 +3212,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>۶ روز و  ۱۳ ساعت</t>
+          <t>۶ روز و  ۱۲ ساعت</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615204&amp;domainType=1431&amp;needId=3400282</t>
         </is>
       </c>
     </row>
@@ -3270,12 +3270,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>۴ روز و  ۱۳ ساعت</t>
+          <t>۴ روز و  ۱۲ ساعت</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615174&amp;domainType=1431&amp;needId=3400263</t>
         </is>
       </c>
     </row>
@@ -3328,12 +3328,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۱ ساعت</t>
+          <t>۳ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615159&amp;domainType=1431&amp;needId=3400249</t>
         </is>
       </c>
     </row>
@@ -3386,12 +3386,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۰ ساعت</t>
+          <t>۳ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615170&amp;domainType=1431&amp;needId=3400262</t>
         </is>
       </c>
     </row>
@@ -3444,12 +3444,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>۱ روز و  ۱۶ ساعت</t>
+          <t>۱ روز و  ۱۵ ساعت</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615168&amp;domainType=1431&amp;needId=3400258</t>
         </is>
       </c>
     </row>
@@ -3502,12 +3502,12 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۰ ساعت</t>
+          <t>۲ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615153&amp;domainType=1431&amp;needId=3400244</t>
         </is>
       </c>
     </row>
@@ -3560,12 +3560,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>۸ روز و  ۱۳ ساعت</t>
+          <t>۸ روز و  ۱۲ ساعت</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4596566&amp;domainType=1431&amp;needId=3400206</t>
         </is>
       </c>
     </row>
@@ -3618,12 +3618,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۱ ساعت</t>
+          <t>۳ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615137&amp;domainType=1431&amp;needId=3400229</t>
         </is>
       </c>
     </row>
@@ -3676,12 +3676,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>۹ روز و  ۱۰ ساعت</t>
+          <t>۹ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615119&amp;domainType=1431&amp;needId=3400213</t>
         </is>
       </c>
     </row>
@@ -3734,12 +3734,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>۶ روز و  ۱۳ ساعت</t>
+          <t>۶ روز و  ۱۲ ساعت</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4613760&amp;domainType=1431&amp;needId=3400218</t>
         </is>
       </c>
     </row>
@@ -3792,12 +3792,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۱ ساعت</t>
+          <t>۳ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615112&amp;domainType=1431&amp;needId=3400209</t>
         </is>
       </c>
     </row>
@@ -3850,12 +3850,12 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>۱۰ روز و  ۱۱ ساعت</t>
+          <t>۱۰ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615096&amp;domainType=1431&amp;needId=3400203</t>
         </is>
       </c>
     </row>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>۳ روز و  ۸ ساعت</t>
+          <t>۳ روز و  ۷ ساعت</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615053&amp;domainType=1431&amp;needId=3400156</t>
         </is>
       </c>
     </row>
@@ -3966,12 +3966,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>۶ روز و  ۱۳ ساعت</t>
+          <t>۶ روز و  ۱۲ ساعت</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615074&amp;domainType=1431&amp;needId=3400172</t>
         </is>
       </c>
     </row>
@@ -4024,12 +4024,12 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>۳ روز</t>
+          <t>۲ روز و  ۲۳ ساعت</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615061&amp;domainType=1431&amp;needId=3400177</t>
         </is>
       </c>
     </row>
@@ -4082,12 +4082,12 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۰ ساعت</t>
+          <t>۲ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615080&amp;domainType=1431&amp;needId=3400184</t>
         </is>
       </c>
     </row>
@@ -4140,12 +4140,12 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۱ ساعت</t>
+          <t>۳ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4518747&amp;domainType=1431&amp;needId=3331405</t>
         </is>
       </c>
     </row>
@@ -4198,12 +4198,12 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>۶ روز و  ۹ ساعت</t>
+          <t>۶ روز و  ۸ ساعت</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615015&amp;domainType=1431&amp;needId=3400123</t>
         </is>
       </c>
     </row>
@@ -4256,12 +4256,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>۳ روز و  ۹ ساعت</t>
+          <t>۳ روز و  ۸ ساعت</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615040&amp;domainType=1431&amp;needId=3400151</t>
         </is>
       </c>
     </row>
@@ -4314,12 +4314,12 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>۱ روز و  ۱۶ ساعت</t>
+          <t>۱ روز و  ۱۵ ساعت</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4614966&amp;domainType=1431&amp;needId=3400090</t>
         </is>
       </c>
     </row>
@@ -4372,12 +4372,12 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۰ ساعت</t>
+          <t>۲ روز و  ۹ ساعت</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615033&amp;domainType=1431&amp;needId=3400138</t>
         </is>
       </c>
     </row>
@@ -4430,12 +4430,12 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>۹ روز و  ۹ ساعت</t>
+          <t>۹ روز و  ۸ ساعت</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615003&amp;domainType=1431&amp;needId=3400127</t>
         </is>
       </c>
     </row>
@@ -4488,12 +4488,12 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>۲ روز و  ۹ ساعت</t>
+          <t>۲ روز و  ۸ ساعت</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4614917&amp;domainType=1431&amp;needId=3400068</t>
         </is>
       </c>
     </row>
@@ -4546,12 +4546,12 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>۳ روز و  ۹ ساعت</t>
+          <t>۳ روز و  ۸ ساعت</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4615017&amp;domainType=1431&amp;needId=3400131</t>
         </is>
       </c>
     </row>
@@ -4604,12 +4604,12 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>۳ روز و  ۱۲ ساعت</t>
+          <t>۳ روز و  ۱۱ ساعت</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4614977&amp;domainType=1431&amp;needId=3400108</t>
         </is>
       </c>
     </row>
@@ -4662,12 +4662,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>۶ روز و  ۱۳ ساعت</t>
+          <t>۶ روز و  ۱۲ ساعت</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4614996&amp;domainType=1431&amp;needId=3400107</t>
         </is>
       </c>
     </row>
@@ -4720,12 +4720,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>۳ روز و  ۹ ساعت</t>
+          <t>۳ روز و  ۸ ساعت</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4614991&amp;domainType=1431&amp;needId=3400112</t>
         </is>
       </c>
     </row>
@@ -4778,12 +4778,12 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>۱۴ روز و  ۱۱ ساعت</t>
+          <t>۱۴ روز و  ۱۰ ساعت</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4614866&amp;domainType=1431&amp;needId=3400005</t>
         </is>
       </c>
     </row>
@@ -4836,12 +4836,12 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>۴ روز و  ۹ ساعت</t>
+          <t>۴ روز و  ۸ ساعت</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4614843&amp;domainType=1431&amp;needId=3400022</t>
         </is>
       </c>
     </row>
@@ -4894,12 +4894,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>۳ روز و  ۹ ساعت</t>
+          <t>۳ روز و  ۸ ساعت</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4614876&amp;domainType=1431&amp;needId=3400014</t>
         </is>
       </c>
     </row>
@@ -4952,12 +4952,12 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۷ ساعت</t>
+          <t>۲ روز و  ۱۶ ساعت</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4613681&amp;domainType=1431&amp;needId=3399122</t>
         </is>
       </c>
     </row>
@@ -5010,12 +5010,12 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۶ ساعت</t>
+          <t>۲ روز و  ۱۵ ساعت</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4614409&amp;domainType=1431&amp;needId=3399659</t>
         </is>
       </c>
     </row>
@@ -5068,12 +5068,12 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>۳ روز و  ۹ ساعت</t>
+          <t>۳ روز و  ۸ ساعت</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4614876&amp;domainType=1431&amp;needId=3400014</t>
         </is>
       </c>
     </row>
@@ -5126,12 +5126,12 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۷ ساعت</t>
+          <t>۲ روز و  ۱۶ ساعت</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4613681&amp;domainType=1431&amp;needId=3399122</t>
         </is>
       </c>
     </row>
@@ -5184,1752 +5184,12 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>۲ روز و  ۱۶ ساعت</t>
+          <t>۲ روز و  ۱۵ ساعت</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>۵۸۷</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>شرکت نفت و گاز اروندان</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>خوزستان</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>پوشاک و کفش</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۹ ساعت</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>۵۹۱</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>36 قلم لوازم التحریر به شرح اس...</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>بازرگانی گاز ایران</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>تهران</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>تجهیزات و وسایل ت...</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۷ ساعت</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>۵۹۶</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>آذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۶ ساعت</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>۵۸۷</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>شرکت نفت و گاز اروندان</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>خوزستان</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>پوشاک و کفش</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۹ ساعت</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>۵۹۱</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>36 قلم لوازم التحریر به شرح اس...</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>بازرگانی گاز ایران</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>تهران</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>تجهیزات و وسایل ت...</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۷ ساعت</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>۵۹۶</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>آذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۶ ساعت</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>۵۸۷</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>شرکت نفت و گاز اروندان</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>خوزستان</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>پوشاک و کفش</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۹ ساعت</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>۵۹۱</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>36 قلم لوازم التحریر به شرح اس...</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>بازرگانی گاز ایران</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>تهران</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>تجهیزات و وسایل ت...</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۷ ساعت</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>۵۹۶</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>آذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۶ ساعت</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>۵۸۷</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>شرکت نفت و گاز اروندان</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>خوزستان</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>پوشاک و کفش</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۹ ساعت</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>۵۹۱</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>36 قلم لوازم التحریر به شرح اس...</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>بازرگانی گاز ایران</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>تهران</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>تجهیزات و وسایل ت...</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۷ ساعت</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>۵۹۶</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>آذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۶ ساعت</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>۵۸۷</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>شرکت نفت و گاز اروندان</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>خوزستان</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>پوشاک و کفش</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۹ ساعت</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>۵۹۱</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>36 قلم لوازم التحریر به شرح اس...</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>بازرگانی گاز ایران</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>تهران</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>تجهیزات و وسایل ت...</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۷ ساعت</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>۵۹۶</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>آذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۶ ساعت</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>۵۸۷</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>شرکت نفت و گاز اروندان</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>خوزستان</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>پوشاک و کفش</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۹ ساعت</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>۵۹۱</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>36 قلم لوازم التحریر به شرح اس...</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>بازرگانی گاز ایران</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>تهران</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>تجهیزات و وسایل ت...</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۷ ساعت</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>۵۹۶</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>آذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۶ ساعت</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>۵۸۷</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>شرکت نفت و گاز اروندان</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>خوزستان</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>پوشاک و کفش</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۹ ساعت</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>۵۹۱</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>36 قلم لوازم التحریر به شرح اس...</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>بازرگانی گاز ایران</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>تهران</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>تجهیزات و وسایل ت...</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۷ ساعت</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>۵۹۶</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>آذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۶ ساعت</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>۵۸۷</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>شرکت نفت و گاز اروندان</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>خوزستان</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>پوشاک و کفش</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۹ ساعت</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>۵۹۱</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>36 قلم لوازم التحریر به شرح اس...</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>بازرگانی گاز ایران</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>تهران</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>تجهیزات و وسایل ت...</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۷ ساعت</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>۵۹۶</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>آذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۶ ساعت</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>۵۸۷</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>شرکت نفت و گاز اروندان</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>خوزستان</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>پوشاک و کفش</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۹ ساعت</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>۵۹۱</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>36 قلم لوازم التحریر به شرح اس...</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>بازرگانی گاز ایران</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>تهران</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>تجهیزات و وسایل ت...</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۷ ساعت</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>۵۹۶</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>آذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۶ ساعت</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>۵۸۷</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۳۵۶۷۰۰۰۸۱۹</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>البسه کار &amp; #40;زمستانی&amp; #41; طبق شرح پی...</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>شرکت نفت و گاز اروندان</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>خوزستان</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>پوشاک و کفش</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>۳ روز و  ۹ ساعت</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>۵۹۱</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۹۴۳۷۶۰۰۰۰۰۲</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>36 قلم لوازم التحریر به شرح اس...</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>بازرگانی گاز ایران</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>تهران</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>تجهیزات و وسایل ت...</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۷ ساعت</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>۵۹۶</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>۱۱۰۲۰۰۳۶۳۶۰۰۰۰۷۰</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>خرید5 دستگاه اجاق گاز مدلSF51،...</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>مدیریت شعب بانک مسکن در استان اذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>آذربایجان شرقی</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>انتخاب تامین کننده</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>کالا</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>تجهیزات خانگی، اد...</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>۱۴۰۲/۱۰/۲۳</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>۲ روز و  ۱۶ ساعت</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>javascript:void(0)</t>
+          <t>https://eproc.setadiran.ir/eproc/needDetailsInfoModal-load.do?reqId=4614409&amp;domainType=1431&amp;needId=3399659</t>
         </is>
       </c>
     </row>
